--- a/SIG/Producao/Producao/Modelos/ETIQUETA_REQUISICAO_MODELO.xlsx
+++ b/SIG/Producao/Producao/Modelos/ETIQUETA_REQUISICAO_MODELO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\wognascimento\SIG\SIG\Producao\Producao\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B611E47-09FA-47F1-A313-2774D67A651C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EF665-5A3D-4F49-937C-592863985296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="PRIMEIRA">Planilha1!$A$1:$D$16</definedName>
     <definedName name="QUARTA">Planilha1!$F$18:$I$33</definedName>
-    <definedName name="SEGUNDA">Planilha1!$A$18:$D$33</definedName>
-    <definedName name="TERCEIRA">Planilha1!$F$1:$I$16</definedName>
+    <definedName name="SEGUNDA">Planilha1!$F$1:$I$16</definedName>
+    <definedName name="TERCEIRA">Planilha1!$A$18:$D$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -135,11 +135,15 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,15 +151,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,368 +491,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="5" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:D24"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="A8:D11"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:I7"/>
+    <mergeCell ref="F8:I11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G19:G20"/>
@@ -869,42 +905,6 @@
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="A25:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:I7"/>
-    <mergeCell ref="F8:I11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="A8:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:D24"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
